--- a/Documentação/Diagrama de Caso de Uso/UC02 - Manter Cliente/UC02 - Manter Cliente.xlsx
+++ b/Documentação/Diagrama de Caso de Uso/UC02 - Manter Cliente/UC02 - Manter Cliente.xlsx
@@ -233,7 +233,7 @@
 P2 - O sistema exibe a página de clientes;
 P3 - O ator seleciona a opção "Excluir Clientes";
 P4 - O sistema exibe a página de excluir clientes;
-P5 - O sistema exibe uma lista de relatórios com algumas informações e 
+P5 - O sistema exibe uma lista de clientes com algumas informações e 
 um botão para excluir;
 P6 - O ator clica no botão "Excluir";
 P7 - O sistema emite uma mensagem pedindo confirmação dessa ação;

--- a/Documentação/Diagrama de Caso de Uso/UC02 - Manter Cliente/UC02 - Manter Cliente.xlsx
+++ b/Documentação/Diagrama de Caso de Uso/UC02 - Manter Cliente/UC02 - Manter Cliente.xlsx
@@ -112,7 +112,7 @@
 mensagem de erro "Falha na comunicação com o banco de dados";
 P9.2 - Se ocorrer erro ao executar o SQL, o sistema exibe a mensagem
 de erro "Falha ao gravar os dados no banco de dados."
-P9.3 -  Se já existir algum usuário com algum dos campos únicos já 
+P9.3 -  Se já existir algum cliente com algum dos campos únicos já 
 cadastrado, o sistema exibe uma mensagem de erro "Algum campo único 
 já está cadastrado no sistema. Tente novamente."</t>
   </si>
@@ -180,7 +180,7 @@
 P2 - O sistema exibe a página de clientes;
 P3 - O ator seleciona a opção "Alterar dados dos clientes";
 P4 - O sistema exibe a página de alterar clientes;
-P5 - O Administrador seleciona um cliente para alterar;
+P5 - O ator seleciona um cliente para alterar;
 P6 - O sistema exibe uma página para exibir as informações e permitir 
 alterações daquele cliente em específico;
 P7 - O ator altera as informações do formulário;
@@ -190,17 +190,17 @@
 P10 - O ator clica na opção "Confimar";
 P11 - O sistema grava os dados do formulário no banco de dados;
 P12 - O sistema exibe uma janela confirmando o sucesso da alteração;
-P13 - O Administrador clica na opção "OK";
+P13 - O ator clica na opção "OK";
 P14 - O sistema exibe a página de alterar clientes;
 P15 - Caso de Uso concluído.</t>
   </si>
   <si>
-    <t>P5.1 - O Administrador pode pesquisar um usuário específico;
-P6.1 - O Administrador clica em "Cancelar", cancelando a operação 
+    <t>P5.1 - O ator pode pesquisar um usuário específico;
+P6.1 - O ator clica em "Cancelar", cancelando a operação 
 de alteração;
-P6.2 - O sistema avisa o Administrador caso algum campo obrigatório
+P6.2 - O sistema avisa o ator caso algum campo obrigatório
 não esteja preenchido;
-P10.1 - O Administrador clica em "Cancelar", saindo da janela para voltar
+P10.1 - O ator clica em "Cancelar", saindo da janela para voltar
 o preenchimento do formulário.</t>
   </si>
   <si>
@@ -211,7 +211,7 @@
 P9.1 - Caso algum campo seja preenchido com valores inválidos, o 
 sistema emite a mensagem "Formato de dados inválido. Preencha os 
 campos corretamente."
-P11.3 -  Se já existir algum usuário com algum dos campos únicos já 
+P11.1 -  Se já existir algum cliente com algum dos campos únicos já 
 cadastrado, o sistema exibe uma mensagem de erro "Algum campo único 
 já está cadastrado no sistema. Tente novamente."</t>
   </si>
@@ -308,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border/>
     <border>
       <left style="thin">
@@ -324,11 +324,33 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -373,6 +395,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -8816,8 +8844,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="11.57"/>
     <col customWidth="1" min="2" max="2" width="28.86"/>
-    <col customWidth="1" min="3" max="3" width="63.43"/>
-    <col customWidth="1" min="4" max="4" width="42.57"/>
+    <col customWidth="1" min="3" max="3" width="64.43"/>
+    <col customWidth="1" min="4" max="4" width="6.86"/>
     <col customWidth="1" min="5" max="5" width="9.14"/>
     <col customWidth="1" min="6" max="26" width="8.71"/>
   </cols>
@@ -8913,30 +8941,28 @@
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" ht="125.25" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
@@ -12985,36 +13011,36 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" ht="29.25" customHeight="1">
-      <c r="A8" s="15"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
     </row>
     <row r="9" ht="41.25" customHeight="1">
       <c r="A9" s="1"/>

--- a/Documentação/Diagrama de Caso de Uso/UC02 - Manter Cliente/UC02 - Manter Cliente.xlsx
+++ b/Documentação/Diagrama de Caso de Uso/UC02 - Manter Cliente/UC02 - Manter Cliente.xlsx
@@ -76,7 +76,7 @@
   <si>
     <t>P1 - O ator seleciona a opção "Clientes";
 P2 - O sistema exibe a página de clientes;
-P3 - O ator seleciona a opção "Cadastrar novo cliente";
+P3 - O ator seleciona a opção "Cadastrar Cliente";
 P4 - O sistema exibe a página de cadastro de cliente;
 P5 - O ator preenche o formulário de cadastro da página 
 com os dados necessários;
@@ -139,24 +139,22 @@
     <t>- O sistema deve mostrar uma lista de clientes e suas informações.</t>
   </si>
   <si>
-    <t>P1 - O ator seleciona a opção "Usuários";
-P2 - O sistema exibe a página de usuários;
-P3 - O ator seleciona a opção "Listar Usuários";
-P4 - O sistema exibe a página de listagem de usuários;
-P5 - Caso de Uso concluído.</t>
+    <t>P1 - O ator seleciona a opção "Clientes";
+P2 - O sistema exibe a página de clientes. Nesta página, há um botão de 
+"Cadastrar Cliente" e uma lista de clientes com cada registro tendo 
+os botões de: detalhes, alterar e excluir; 
+P3 - Caso de Uso concluído.</t>
   </si>
   <si>
-    <t>P4.1 - O ator pode escolher diferentes filtros para listar os
- usuários;
-P4.2 - O ator pode clicar em cada usuário para ter uma visão 
-mais específica de cada.</t>
+    <t>P2.1 - O ator pode escolher diferentes filtros para listar os
+clientes;
+P2.2 -  O ator pode pesquisar clientes específicos.</t>
   </si>
   <si>
-    <t>P4.1 - Se o banco de dados não estiver acessível, o sistema exibe a lista 
-vazia e uma mensagem de erro "Falha na comunicação com o banco de 
-dados";
-P4.2 - Se ocorrer erro ao executar o SQL, o sistema exibe a mensagem
-de erro "Falha ao exibir os dados no banco de dados."</t>
+    <t>P2.1 - Se o banco de dados não estiver acessível, o sistema exibe a 
+mensagem de erro "Falha na comunicação com o banco de dados";
+P2.2 - Se ocorrer erro ao executar o SQL, o sistema exibe a mensagem
+de erro "Falha ao gravar os dados no banco de dados".</t>
   </si>
   <si>
     <t>UC 02.3</t>
@@ -178,40 +176,37 @@
   <si>
     <t>P1 - O ator seleciona a opção "Clientes";
 P2 - O sistema exibe a página de clientes;
-P3 - O ator seleciona a opção "Alterar dados dos clientes";
-P4 - O sistema exibe a página de alterar clientes;
-P5 - O ator seleciona um cliente para alterar;
-P6 - O sistema exibe uma página para exibir as informações e permitir 
+P3 - O ator seleciona o cliente que quer alterar;
+P4 - O sistema exibe uma página para exibir as informações e permitir 
 alterações daquele cliente em específico;
-P7 - O ator altera as informações do formulário;
-P8 - O ator clica na opção "Alterar dados";
-P9 - O sistema exibe uma janela com as informações alteradas do 
-cliente para o ator confirmar;
-P10 - O ator clica na opção "Confimar";
-P11 - O sistema grava os dados do formulário no banco de dados;
-P12 - O sistema exibe uma janela confirmando o sucesso da alteração;
-P13 - O ator clica na opção "OK";
-P14 - O sistema exibe a página de alterar clientes;
-P15 - Caso de Uso concluído.</t>
+P5 - O ator altera as informações do formulário;
+P6 - O ator clica na opção "Alterar dados";
+P7 - O sistema exibe uma janela com as informações alteradas do cliente 
+para o ator confirmar;
+P8 - O ator clica na opção "Confimar";
+P9 - O sistema grava os dados do formulário no banco de dados;
+P10 - O sistema exibe uma janela confirmando o sucesso da alteração;
+P11 - O ator clica na opção "OK";
+P12 - O sistema exibe a página de clientes;
+P13 - Caso de Uso concluído.</t>
   </si>
   <si>
-    <t>P5.1 - O ator pode pesquisar um usuário específico;
-P6.1 - O ator clica em "Cancelar", cancelando a operação 
+    <t>P6.1 - O ator clica em "Voltar", cancelando a operação 
 de alteração;
-P6.2 - O sistema avisa o ator caso algum campo obrigatório
+P7.1 - O sistema avisa o ator caso algum campo obrigatório
 não esteja preenchido;
-P10.1 - O ator clica em "Cancelar", saindo da janela para voltar
+P8.1 - O ator clica em "Cancelar", saindo da janela para voltar
 o preenchimento do formulário.</t>
   </si>
   <si>
     <t>P4.1 - Se o banco de dados não estiver acessível, o sistema exibe a 
 mensagem de erro "Falha na comunicação com o banco de dados";
-P4.2 - Se ocorrer erro ao executar o SQL, o sistema exibe a mensagem
-de erro "Falha ao gravar os dados no banco de dados"
-P9.1 - Caso algum campo seja preenchido com valores inválidos, o 
+P7.1 - Caso algum campo seja preenchido com valores inválidos, o 
 sistema emite a mensagem "Formato de dados inválido. Preencha os 
 campos corretamente."
-P11.1 -  Se já existir algum cliente com algum dos campos únicos já 
+P9.1 - Se ocorrer erro ao executar o SQL, o sistema exibe a mensagem
+de erro "Falha ao gravar os dados no banco de dados"
+P10.1 -  Se já existir algum cliente com algum dos campos únicos já 
 cadastrado, o sistema exibe uma mensagem de erro "Algum campo único 
 já está cadastrado no sistema. Tente novamente."</t>
   </si>
@@ -231,27 +226,21 @@
   <si>
     <t>P1 - O ator seleciona a opção "Clientes";
 P2 - O sistema exibe a página de clientes;
-P3 - O ator seleciona a opção "Excluir Clientes";
-P4 - O sistema exibe a página de excluir clientes;
-P5 - O sistema exibe uma lista de clientes com algumas informações e 
-um botão para excluir;
-P6 - O ator clica no botão "Excluir";
-P7 - O sistema emite uma mensagem pedindo confirmação dessa ação;
-P8 - O ator clica no botão "Confirmar";
-P9 - O sistema atualiza o banco de dados;
-P10 - Caso de Uso concluído.</t>
+P3 - O ator clica no botão "Excluir" de um cliente específico;
+P4 - O sistema emite uma mensagem pedindo confirmação dessa ação;
+P5 - O ator clica no botão "Confirmar";
+P6 - O sistema atualiza o banco de dados;
+P7 - Caso de Uso concluído.</t>
   </si>
   <si>
-    <t>P5.1 - O ator pode pesquisar um cliente específico;
-P5.2 - O ator pode escolher diferentes filtros para listar os clientes;
-P6.1 - O ator clica no botão "Cancelar", cancelando a operação
+    <t>P5.1 - O ator clica no botão "Cancelar", cancelando a operação
 de exclusão.</t>
   </si>
   <si>
-    <t>P7.1 - Se o cliente tiver transações associadas que impeçam a exclusão, o sistema exibe a mensagem "O cliente possui transações ativas e não pode ser excluído.";
-P5.1 - Se o banco de dados não estiver acessível, o sistema exibe a 
+    <t>P6.1 - Se o cliente tiver transações associadas que impeçam a exclusão, o sistema exibe a mensagem "O cliente possui transações ativas e não pode ser excluído.";
+P6.2 - Se o banco de dados não estiver acessível, o sistema exibe a 
 mensagem de erro "Falha na comunicação com o banco de dados";
-P5.2 - Se ocorrer erro ao executar o SQL, o sistema exibe a mensagem
+P6.3 - Se ocorrer erro ao executar o SQL, o sistema exibe a mensagem
 de erro "Falha ao excluir o cliente no banco de dados."</t>
   </si>
 </sst>
@@ -4730,7 +4719,7 @@
     </row>
   </sheetData>
   <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4850,7 +4839,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" ht="50.25" customHeight="1">
+    <row r="11" ht="38.25" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -4860,7 +4849,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" ht="68.25" customHeight="1">
+    <row r="12" ht="51.0" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -8955,12 +8944,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" ht="125.25" customHeight="1">
+    <row r="12" ht="126.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -13062,7 +13051,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" ht="58.5" customHeight="1">
+    <row r="11" ht="28.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
